--- a/public/admin/payslip_format.xlsx
+++ b/public/admin/payslip_format.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Fixed_Conveyance</t>
   </si>
   <si>
-    <t>Fixed_Education_Allowance</t>
-  </si>
-  <si>
-    <t>Fixed_Medical_Reimbursement</t>
-  </si>
-  <si>
     <t>Fixed_Special_Allowance</t>
   </si>
   <si>
@@ -150,12 +144,6 @@
     <t>Earned_Conveyance</t>
   </si>
   <si>
-    <t>Earned_Education_Allowance</t>
-  </si>
-  <si>
-    <t>Earned_Medical_Allowance</t>
-  </si>
-  <si>
     <t>Earned_Special_Allowance</t>
   </si>
   <si>
@@ -210,6 +198,9 @@
     <t>Other_Deduction</t>
   </si>
   <si>
+    <t>Notice_Period_Deduction</t>
+  </si>
+  <si>
     <t>Total_Deduction</t>
   </si>
   <si>
@@ -217,6 +208,9 @@
   </si>
   <si>
     <t>In_Words</t>
+  </si>
+  <si>
+    <t>15-5-2002</t>
   </si>
   <si>
     <t>Urbanlogix Global India Private Limited</t>
@@ -635,13 +629,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,16 +653,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -814,12 +816,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1134,152 +1154,167 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1814,18 +1849,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16384" width="31.5555555555556" customWidth="1"/>
+    <col min="1" max="4" width="31.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="31.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="16382" width="31.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:63">
+    <row r="1" customFormat="1" spans="1:62">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1875,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1889,152 +1926,148 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="2:8">
+      <c r="B2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="2:8">
-      <c r="B2" s="4"/>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="46:46">
-      <c r="AT5" s="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="44:44">
+      <c r="AR5" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2063,372 +2096,372 @@
   <sheetData>
     <row r="2" spans="7:7">
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="7:7">
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="7:7">
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="7:7">
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="7:7">
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/payslip_format.xlsx
+++ b/public/admin/payslip_format.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -213,57 +213,30 @@
     <t>15-5-2002</t>
   </si>
   <si>
-    <t>Urbanlogix Global India Private Limited</t>
-  </si>
-  <si>
-    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
-  </si>
-  <si>
-    <t>TTP Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>Zomato Hyperpure Private Limited</t>
-  </si>
-  <si>
-    <t>Bigfoot Retail Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>PCI Pest Control Private Limited</t>
-  </si>
-  <si>
-    <t>IFB Automotive Private Ltd</t>
+    <t>CLIENT NAME</t>
+  </si>
+  <si>
+    <t>SL No</t>
   </si>
   <si>
     <t>Blink Commerce Private Limited</t>
   </si>
   <si>
-    <t>KiranaKart Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>SSAGC Marketing Services Private Limited</t>
-  </si>
-  <si>
-    <t>Shopclients Consultancy Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>WayCool Foods and Products Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Deliveryontime Logistics Private Ltd</t>
-  </si>
-  <si>
-    <t>WWL Centre For Logistics Excellence Private Limited</t>
-  </si>
-  <si>
-    <t>Firmroots Private Limited</t>
-  </si>
-  <si>
-    <t>Patwari Pharma Private Limited</t>
-  </si>
-  <si>
-    <t>Smart Express Private Limited</t>
-  </si>
-  <si>
+    <t>BLUE DART EXPRESS LTD</t>
+  </si>
+  <si>
+    <t>Brainbees Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>BusybeesLogistics Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>DELHIVERY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <r>
+      <t>Digital Age Retail Private Limited</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -271,6 +244,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Firmroots Private Limited</t>
+  </si>
+  <si>
+    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
+  </si>
+  <si>
+    <t>IFB Automotive Private Ltd</t>
+  </si>
+  <si>
+    <r>
       <t>Mehler Engineered Products</t>
     </r>
     <r>
@@ -311,318 +298,22 @@
     </r>
   </si>
   <si>
-    <t>Mechanical Unified Private Limited</t>
-  </si>
-  <si>
-    <t>Gobuyeazzify India Private Limited</t>
-  </si>
-  <si>
-    <t>Fashnear Technologies Private Limited</t>
+    <t>Patwari Pharma Private Limited</t>
+  </si>
+  <si>
+    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
   </si>
   <si>
     <t>Rapidue Technologies Pvt Ltd</t>
   </si>
   <si>
-    <t>Loadshare Networks Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Threpsi Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>Supr Infotech Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>Farmtheory Private Limited</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Blue Dart Aviation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ltd.</t>
-    </r>
-  </si>
-  <si>
-    <t>NEWLOOP LOGISTICS PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>LYNKS LOGISTICS LIMITED</t>
-  </si>
-  <si>
-    <t>GRANARY WHOLESALE PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>INDUSBUY TECHSERVE PVT LTD</t>
-  </si>
-  <si>
-    <t>BLUE DART EXPRESS LTD</t>
-  </si>
-  <si>
-    <t>HICARE SERVICES PVT LTD</t>
-  </si>
-  <si>
-    <t>QWY Technologies Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Medlife Wellness Retail Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Slingpe software private limited</t>
-  </si>
-  <si>
-    <t>MAK STAFFING</t>
-  </si>
-  <si>
-    <t>63 Ideas Info Labs Private Limited</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pristine facility &amp; management service pvt ltd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Randstand india pvt ltd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Himatsingka</t>
-  </si>
-  <si>
-    <t>Mahindra Logistics limited</t>
-  </si>
-  <si>
-    <t>Rupeek Fintech Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Grantail Wholesale Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Wickedride Adventure Services Pvt Ltd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DTDC express</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Limited</t>
-    </r>
-  </si>
-  <si>
-    <t>DELHIVERY PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>VOGO AUTOMOTIVE PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>Ecom Express Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Ansio Marketplace Pvt Ltd</t>
-  </si>
-  <si>
-    <t>RESILIENT INNOVATIONS PRIVATE LIMITED(Bharat Pe)</t>
-  </si>
-  <si>
-    <t>Asset Trackr Pvt. Ltd.,</t>
-  </si>
-  <si>
-    <t>BRILLIANT PRINTERS PVT LTD</t>
-  </si>
-  <si>
-    <t>ERELEGO DIGI MEDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>JMS LOGISTICS &amp; EXPRESS PVT LTD</t>
-  </si>
-  <si>
-    <t>EQUITAS TECHNOLOGIES PVT LTD</t>
-  </si>
-  <si>
-    <t>KARVY DATA MANAGEMENT SERVICES LTD</t>
-  </si>
-  <si>
-    <t>RIGHT BRAIN TECHNOLOGY PVT LTD</t>
-  </si>
-  <si>
-    <t>CURE FOODS PVT LTD</t>
-  </si>
-  <si>
-    <t>INNOVATIVE RETAIL CONCEPTS PVT LTD</t>
-  </si>
-  <si>
-    <t>SUPER MARKET GROCERY SUPPLIES PVT LTD</t>
-  </si>
-  <si>
-    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
-  </si>
-  <si>
-    <t>DUNZO DIGITAL PVT LTD</t>
-  </si>
-  <si>
-    <t>KEF INFRASTRUCTURE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>BISLERI INTERNATIONAL PVT LTD</t>
-  </si>
-  <si>
-    <t>MSUPPLY ECOMMERCE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>YUSEN LOGISTICS (INDIA) PVT LTD</t>
-  </si>
-  <si>
-    <t>Brainbees Solutions Private Limited</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Digital Age Retail Private Limited</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>BusybeesLogistics Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>Hands On Trades Private Limited</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>GROFERS INDIA PVT LTD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Hiveloop Logistics Private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Limited</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiveloop Technology Private Limited.</t>
+    <t>TTP Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Urbanlogix Global India Private Limited</t>
+  </si>
+  <si>
+    <t>Zomato Hyperpure Private Limited</t>
   </si>
 </sst>
 </file>
@@ -645,13 +336,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1284,33 +975,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1851,227 +1547,222 @@
   <sheetPr/>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="4" width="31.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="31.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5555555555556" style="5" customWidth="1"/>
     <col min="6" max="16382" width="31.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:62">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:8">
-      <c r="B2" s="5"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="5"/>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
+    <row r="3" spans="2:2">
+      <c r="B3" s="8"/>
     </row>
     <row r="5" spans="44:44">
-      <c r="AR5" s="8"/>
+      <c r="AR5" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>list!$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6">
       <formula1>list!$G$1:$G$75</formula1>
     </dataValidation>
   </dataValidations>
@@ -2083,10 +1774,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G2:G75"/>
+  <dimension ref="F1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2094,375 +1785,315 @@
     <col min="7" max="7" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" s="1" t="s">
+    <row r="1" spans="6:7">
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="7:7">
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7">
-      <c r="G4" s="1" t="s">
+    <row r="2" spans="6:7">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="7:7">
-      <c r="G5" s="1" t="s">
+    <row r="3" spans="6:7">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="7:7">
-      <c r="G6" s="1" t="s">
+    <row r="4" spans="6:7">
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="1" t="s">
+    <row r="5" spans="6:7">
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
-      <c r="G8" s="1" t="s">
+    <row r="6" spans="6:7">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="1" t="s">
+    <row r="7" spans="6:7">
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="1" t="s">
+    <row r="8" spans="6:7">
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="1" t="s">
+    <row r="9" spans="6:7">
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="7:7">
-      <c r="G12" s="1" t="s">
+    <row r="10" spans="6:7">
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
-      <c r="G13" s="1" t="s">
+    <row r="11" spans="6:7">
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="1" t="s">
+    <row r="12" spans="6:7">
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="1" t="s">
+    <row r="13" spans="6:7">
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="7:7">
-      <c r="G16" s="1" t="s">
+    <row r="14" spans="6:7">
+      <c r="F14" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="1" t="s">
+    <row r="15" spans="6:7">
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="G75" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/admin/payslip_format.xlsx
+++ b/public/admin/payslip_format.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -132,10 +132,10 @@
     <t>Fixed_Other_Wages</t>
   </si>
   <si>
-    <t>Fixed_Total_Earnings</t>
-  </si>
-  <si>
-    <t>Earned_Basic</t>
+    <t>Fixed_Total_Gross</t>
+  </si>
+  <si>
+    <t>Earned_Basic_DA</t>
   </si>
   <si>
     <t>Earned_HRA</t>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Digital Age Retail Private Limited</t>
     </r>
     <r>
@@ -258,6 +264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mehler Engineered Products</t>
     </r>
     <r>
@@ -975,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,7 +996,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1298,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1547,204 +1565,204 @@
   <sheetPr/>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="4" width="31.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="31.5555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31.5555555555556" style="4" customWidth="1"/>
     <col min="6" max="16382" width="31.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:62">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AW1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BC1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:8">
-      <c r="B2" s="8"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H2" t="s">
@@ -1752,10 +1770,10 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="5" spans="44:44">
-      <c r="AR5" s="11"/>
+      <c r="AR5" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1922,178 +1940,178 @@
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="4"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="4"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="4"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="4"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="4"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="4"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="4"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="4"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="4"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="4"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="4"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="4"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="4"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="4"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="4"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="4"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="4"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="4"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="4"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="4"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="4"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="4"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="4"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="4"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="4"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="4"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="4"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="4"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="4"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="4"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="4"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="4"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="4"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="4"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="4"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="4"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="4"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="4"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="4"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="4"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="4"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="4"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="4"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="4"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="4"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="4"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="4"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="4"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="4"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="4"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="4"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="4"/>
+      <c r="G75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/admin/payslip_format.xlsx
+++ b/public/admin/payslip_format.xlsx
@@ -1298,13 +1298,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1565,8 +1558,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/public/admin/payslip_format.xlsx
+++ b/public/admin/payslip_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -327,6 +327,9 @@
   <si>
     <t>Zomato Hyperpure Private Limited</t>
   </si>
+  <si>
+    <t>Unique Punch Systems Pvt Ltd</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +342,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +361,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -857,137 +866,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +1005,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,7 +1017,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1014,13 +1026,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,204 +1570,204 @@
   <sheetPr/>
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="4" width="31.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="31.5555555555556" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.5555555555556" style="5" customWidth="1"/>
     <col min="6" max="16382" width="31.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:62">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:8">
-      <c r="B2" s="7"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H2" t="s">
@@ -1763,10 +1775,10 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="5" spans="44:44">
-      <c r="AR5" s="10"/>
+      <c r="AR5" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1787,8 +1799,8 @@
   <sheetPr/>
   <dimension ref="F1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1932,8 +1944,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="2"/>
+    <row r="18" ht="15" spans="6:7">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" s="2"/>
